--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>Savings Account</t>
   </si>
@@ -344,12 +344,54 @@
   </si>
   <si>
     <t>TestUser01</t>
+  </si>
+  <si>
+    <t>MEM009</t>
+  </si>
+  <si>
+    <t>TraineeUser01</t>
+  </si>
+  <si>
+    <t>14/07/1993</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>TraineeUser01@gmail.com</t>
+  </si>
+  <si>
+    <t>MEM010</t>
+  </si>
+  <si>
+    <t>TraineeUser02</t>
+  </si>
+  <si>
+    <t>14/07/1994</t>
+  </si>
+  <si>
+    <t>14/07/1995</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>TraineeUser03@gmail.com</t>
+  </si>
+  <si>
+    <t>MEM011</t>
+  </si>
+  <si>
+    <t>TraineeUser03</t>
+  </si>
+  <si>
+    <t>TraineeUser02@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,12 +806,10 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -862,6 +902,18 @@
       <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -900,6 +952,9 @@
       <c r="L3" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -938,6 +993,9 @@
       <c r="L4" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -976,6 +1034,9 @@
       <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1014,6 +1075,12 @@
       <c r="L6" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1052,6 +1119,12 @@
       <c r="L7" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1090,6 +1163,12 @@
       <c r="L8" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1127,6 +1206,141 @@
       </c>
       <c r="L9" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>601002</v>
+      </c>
+      <c r="J10">
+        <v>9786543210</v>
+      </c>
+      <c r="K10">
+        <v>1444422050</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>508001</v>
+      </c>
+      <c r="J11">
+        <v>3453453450</v>
+      </c>
+      <c r="K11">
+        <v>1444422050</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12">
+        <v>570012</v>
+      </c>
+      <c r="J12">
+        <v>3453453450</v>
+      </c>
+      <c r="K12">
+        <v>1444422050</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="UserAccountTypes" sheetId="2" r:id="rId2"/>
-    <sheet name="TransactionData" sheetId="3" r:id="rId3"/>
-    <sheet name="TransactionType" sheetId="5" r:id="rId4"/>
+    <sheet name="PopupMessages" sheetId="6" r:id="rId2"/>
+    <sheet name="UserAccountTypes" sheetId="2" r:id="rId3"/>
+    <sheet name="TransactionData" sheetId="3" r:id="rId4"/>
+    <sheet name="TransactionType" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
   <si>
     <t>Savings Account</t>
   </si>
@@ -386,12 +387,36 @@
   </si>
   <si>
     <t>TraineeUser02@gmail.com</t>
+  </si>
+  <si>
+    <t>MESSAGE_TEXT</t>
+  </si>
+  <si>
+    <t>MSG001</t>
+  </si>
+  <si>
+    <t>The member has been created, however, the activation mail could not be sent</t>
+  </si>
+  <si>
+    <t>MSG002</t>
+  </si>
+  <si>
+    <t>Please confirm to logout</t>
+  </si>
+  <si>
+    <t>TraineUser01</t>
+  </si>
+  <si>
+    <t>TraineUser02</t>
+  </si>
+  <si>
+    <t>TraineUser03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -790,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1244,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
@@ -1269,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -1310,7 +1335,7 @@
         <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
@@ -1360,6 +1385,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1417,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1553,12 +1621,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
   <si>
     <t>Savings Account</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>TraineeUser02@gmail.com</t>
+  </si>
+  <si>
+    <t>infy@124</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1052,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2">
         <v>33188</v>
@@ -1093,7 +1096,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2">
         <v>33188</v>
@@ -1181,7 +1184,7 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2">
         <v>33190</v>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>Savings Account</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>TraineeUser02@gmail.com</t>
-  </si>
-  <si>
-    <t>infy@124</t>
   </si>
 </sst>
 </file>
@@ -794,7 +791,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1049,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>33188</v>
@@ -1096,7 +1093,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>33188</v>
@@ -1184,7 +1181,7 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
         <v>33190</v>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
-  <si>
-    <t>Savings Account</t>
-  </si>
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
-    <t>Recurring Deposit Account</t>
-  </si>
-  <si>
-    <t>Fixed Deposit Account</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
   <si>
     <t>MEM001</t>
   </si>
@@ -411,6 +399,78 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>ACC005</t>
+  </si>
+  <si>
+    <t>Savings+Current</t>
+  </si>
+  <si>
+    <t>ACC006</t>
+  </si>
+  <si>
+    <t>Savings+FD</t>
+  </si>
+  <si>
+    <t>ACC007</t>
+  </si>
+  <si>
+    <t>Savings+RD</t>
+  </si>
+  <si>
+    <t>ACC008</t>
+  </si>
+  <si>
+    <t>Current+FD</t>
+  </si>
+  <si>
+    <t>ACC009</t>
+  </si>
+  <si>
+    <t>Current+RD</t>
+  </si>
+  <si>
+    <t>ACC010</t>
+  </si>
+  <si>
+    <t>Savings+Current+FD</t>
+  </si>
+  <si>
+    <t>ACC011</t>
+  </si>
+  <si>
+    <t>Savings+Current+RD</t>
+  </si>
+  <si>
+    <t>ACC012</t>
+  </si>
+  <si>
+    <t>FD+RD</t>
+  </si>
+  <si>
+    <t>ACC013</t>
+  </si>
+  <si>
+    <t>Current+RD+FD</t>
+  </si>
+  <si>
+    <t>Savings+FD+RD</t>
+  </si>
+  <si>
+    <t>Savings+Current+FD+RD</t>
+  </si>
+  <si>
+    <t>ACC014</t>
+  </si>
+  <si>
+    <t>ACC015</t>
   </si>
 </sst>
 </file>
@@ -815,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -839,81 +899,81 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>33188</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>570012</v>
@@ -925,7 +985,7 @@
         <v>2813928232</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -942,28 +1002,28 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>34283</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>340012</v>
@@ -975,7 +1035,7 @@
         <v>2832193812</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -983,28 +1043,28 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>34639</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>230423</v>
@@ -1016,7 +1076,7 @@
         <v>284138284</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1024,13 +1084,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>1234</v>
@@ -1039,13 +1099,13 @@
         <v>35034</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>432342</v>
@@ -1057,7 +1117,7 @@
         <v>2424242424</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1065,28 +1125,28 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>33188</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>570012</v>
@@ -1098,7 +1158,7 @@
         <v>2813928232</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1109,28 +1169,28 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>33188</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I7">
         <v>570012</v>
@@ -1142,7 +1202,7 @@
         <v>2813928232</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1153,28 +1213,28 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>33189</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>570012</v>
@@ -1186,7 +1246,7 @@
         <v>2813928232</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1197,28 +1257,28 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>33190</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>570012</v>
@@ -1230,7 +1290,7 @@
         <v>2813928232</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1241,28 +1301,28 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>601002</v>
@@ -1274,7 +1334,7 @@
         <v>1444422050</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1291,28 +1351,28 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>508001</v>
@@ -1324,7 +1384,7 @@
         <v>1444422050</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1332,28 +1392,28 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I12">
         <v>570012</v>
@@ -1365,7 +1425,7 @@
         <v>1444422050</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1399,26 +1459,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1428,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,42 +1502,130 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1504,98 +1652,98 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6">
         <v>0.1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6">
         <v>0.1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6">
         <v>0.1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1637,310 +1785,310 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
   <si>
     <t>MEM001</t>
   </si>
@@ -471,6 +471,36 @@
   </si>
   <si>
     <t>ACC015</t>
+  </si>
+  <si>
+    <t>MEM012</t>
+  </si>
+  <si>
+    <t>MEM013</t>
+  </si>
+  <si>
+    <t>MSG003</t>
+  </si>
+  <si>
+    <t>The member has been created</t>
+  </si>
+  <si>
+    <t>TraineUser7</t>
+  </si>
+  <si>
+    <t>TraineUser8</t>
+  </si>
+  <si>
+    <t>TraineeUser7</t>
+  </si>
+  <si>
+    <t>TraineeUser8</t>
+  </si>
+  <si>
+    <t>TraineeUser08@gmail.com</t>
+  </si>
+  <si>
+    <t>TraineeUser7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -552,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +597,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -873,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,6 +1461,82 @@
         <v>114</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13">
+        <v>570045</v>
+      </c>
+      <c r="J13">
+        <v>1313223212</v>
+      </c>
+      <c r="K13">
+        <v>3674462422</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14">
+        <v>570098</v>
+      </c>
+      <c r="J14">
+        <v>1485756432</v>
+      </c>
+      <c r="K14">
+        <v>3566363737</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
@@ -1438,6 +1547,8 @@
     <hyperlink ref="L7" r:id="rId6"/>
     <hyperlink ref="L8" r:id="rId7"/>
     <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L13" r:id="rId9"/>
+    <hyperlink ref="L14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1445,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,8 +1592,17 @@
         <v>122</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1490,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="MemberDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="PopupMessages" sheetId="6" r:id="rId2"/>
+    <sheet name="Messages" sheetId="6" r:id="rId2"/>
     <sheet name="UserAccountTypes" sheetId="2" r:id="rId3"/>
     <sheet name="TransactionData" sheetId="3" r:id="rId4"/>
     <sheet name="TransactionType" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="168">
   <si>
     <t>MEM001</t>
   </si>
@@ -501,6 +501,27 @@
   </si>
   <si>
     <t>TraineeUser7@gmail.com</t>
+  </si>
+  <si>
+    <t>MSG004</t>
+  </si>
+  <si>
+    <t>The payment has been performed</t>
+  </si>
+  <si>
+    <t>Deposit into Savings Account</t>
+  </si>
+  <si>
+    <t>MEM014</t>
+  </si>
+  <si>
+    <t>Administrator01</t>
+  </si>
+  <si>
+    <t>admin01</t>
+  </si>
+  <si>
+    <t>admin01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -582,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,6 +621,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N2" sqref="N2:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,18 +1044,6 @@
       <c r="L2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1070,9 +1082,6 @@
       <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1111,9 +1120,6 @@
       <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1152,9 +1158,6 @@
       <c r="L5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1193,12 +1196,6 @@
       <c r="L6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1237,12 +1234,6 @@
       <c r="L7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1281,12 +1272,6 @@
       <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1325,12 +1310,6 @@
       <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1369,18 +1348,6 @@
       <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1419,9 +1386,6 @@
       <c r="L11" t="s">
         <v>117</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1535,6 +1499,44 @@
       </c>
       <c r="L14" s="3" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>35034</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>546893</v>
+      </c>
+      <c r="J15">
+        <v>9876543215</v>
+      </c>
+      <c r="K15">
+        <v>6549873210</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1549,6 +1551,7 @@
     <hyperlink ref="L9" r:id="rId8"/>
     <hyperlink ref="L13" r:id="rId9"/>
     <hyperlink ref="L14" r:id="rId10"/>
+    <hyperlink ref="L15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1556,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,6 +1601,14 @@
       </c>
       <c r="B4" s="7" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1769,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1844,15 @@
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1868,7 +1887,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1881,7 +1900,7 @@
           <x14:formula1>
             <xm:f>TransactionType!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C4</xm:sqref>
+          <xm:sqref>C2:C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1893,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestResources/DataMap/Data.xlsx
+++ b/TestResources/DataMap/Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
   <si>
     <t>MEM001</t>
   </si>
@@ -933,7 +933,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:Q12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,8 +1511,8 @@
       <c r="C15" t="s">
         <v>166</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
+      <c r="D15">
+        <v>1234</v>
       </c>
       <c r="E15" s="2">
         <v>35034</v>
